--- a/import_device_abilityRJ.xlsx
+++ b/import_device_abilityRJ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F1F0C-B520-EA4F-BC14-0D1D6EC5CF7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,15 +437,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QSFP-40G-iSR4,QSFP-40G-eSR4,QSFP-40G-iSM4,QSFP-40G-eSM4,QSFP-40G-iLR4,QSFP-40G-LR4,QSFP-40G-ER4,QSFP28-100G-SR4,QSFP28-100G-PSM4,QSFP-100G-CWDM4,QSFP28-100G-LR4</t>
+    <t>QSFP-40G-iSR4,QSFP-40G-eSR4,QSFP-40G-iSM4,QSFP-40G-eSM4,QSFP-40G-iLR4,QSFP-40G-LR4,QSFP-40G-ER4,QSFP28-100G-SR4,QSFP28-100G-PSM4,QSFP-100G-CWDM4,QSFP28-100G-LR4,QSFP-100GAOC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,25 +792,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D363"/>
+      <selection activeCell="D31" sqref="A1:E363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="124.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -840,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -854,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -868,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -882,7 +883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -896,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -910,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -924,7 +925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -938,7 +939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -952,7 +953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -966,7 +967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -980,7 +981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -994,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>29</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>29</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>29</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>29</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>29</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>29</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>29</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>29</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>56</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>56</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>56</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>56</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>56</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>56</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>56</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>56</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>56</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>56</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>56</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>56</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>56</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>56</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>56</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>56</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>56</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>56</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>56</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>56</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>56</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>56</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>56</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>56</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>56</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>56</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>56</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>56</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>56</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>56</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>56</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>56</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>56</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>56</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="2" t="s">
         <v>57</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="2" t="s">
         <v>57</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="2" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="2" t="s">
         <v>57</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="2" t="s">
         <v>57</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="2" t="s">
         <v>57</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="2" t="s">
         <v>57</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="2" t="s">
         <v>57</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="2" t="s">
         <v>57</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="2" t="s">
         <v>57</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="2" t="s">
         <v>57</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1">
       <c r="A113" s="2" t="s">
         <v>57</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1">
       <c r="A114" s="2" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1">
       <c r="A115" s="2" t="s">
         <v>57</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116" s="2" t="s">
         <v>57</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" s="2" t="s">
         <v>57</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1">
       <c r="A118" s="2" t="s">
         <v>57</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" hidden="1">
       <c r="A119" s="2" t="s">
         <v>57</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1">
       <c r="A120" s="2" t="s">
         <v>57</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1">
       <c r="A121" s="2" t="s">
         <v>57</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1">
       <c r="A122" s="2" t="s">
         <v>57</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" s="2" t="s">
         <v>57</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1">
       <c r="A124" s="2" t="s">
         <v>57</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1">
       <c r="A125" s="2" t="s">
         <v>57</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1">
       <c r="A126" s="2" t="s">
         <v>57</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" s="2" t="s">
         <v>57</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" s="2" t="s">
         <v>57</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" s="2" t="s">
         <v>57</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" s="2" t="s">
         <v>57</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" s="2" t="s">
         <v>57</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" s="2" t="s">
         <v>57</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" s="2" t="s">
         <v>57</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" s="2" t="s">
         <v>57</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" s="2" t="s">
         <v>57</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" s="2" t="s">
         <v>57</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" s="2" t="s">
         <v>57</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" s="2" t="s">
         <v>57</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" s="2" t="s">
         <v>57</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" s="2" t="s">
         <v>57</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" s="2" t="s">
         <v>57</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" s="2" t="s">
         <v>57</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" s="2" t="s">
         <v>57</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
         <v>57</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="2" t="s">
         <v>61</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="2" t="s">
         <v>61</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="2" t="s">
         <v>61</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" s="2" t="s">
         <v>61</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
         <v>61</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>61</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
         <v>61</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
         <v>61</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
         <v>69</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
         <v>69</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
         <v>69</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
         <v>69</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
         <v>69</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
         <v>69</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
         <v>69</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
         <v>69</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
         <v>69</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
         <v>69</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
         <v>69</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
         <v>69</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
         <v>69</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
         <v>69</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
         <v>69</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
         <v>69</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
         <v>69</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
         <v>69</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
         <v>69</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
         <v>69</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
         <v>69</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
         <v>69</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
         <v>69</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
         <v>69</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
         <v>69</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
         <v>69</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
         <v>69</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
         <v>69</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
         <v>69</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
         <v>69</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
         <v>69</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" s="2" t="s">
         <v>69</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" s="2" t="s">
         <v>69</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" s="2" t="s">
         <v>69</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" s="2" t="s">
         <v>69</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="2" t="s">
         <v>69</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
         <v>104</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
         <v>104</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
         <v>104</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
         <v>104</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
         <v>104</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
         <v>104</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
         <v>104</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
         <v>104</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
         <v>104</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
         <v>104</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
         <v>104</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
         <v>104</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
         <v>104</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
         <v>104</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
         <v>104</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
         <v>104</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
         <v>104</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
         <v>104</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
         <v>104</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
         <v>104</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
         <v>104</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
         <v>104</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
         <v>104</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
         <v>104</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
         <v>104</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
         <v>104</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
         <v>104</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
         <v>104</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
         <v>104</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
         <v>104</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
         <v>104</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
         <v>104</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
         <v>104</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
         <v>104</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
         <v>104</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
         <v>104</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
         <v>104</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
         <v>104</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
         <v>104</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
         <v>104</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
         <v>104</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
         <v>104</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
         <v>104</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
         <v>104</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
         <v>104</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
         <v>104</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
         <v>104</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
         <v>104</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
         <v>104</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
         <v>104</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" s="2" t="s">
         <v>104</v>
       </c>
@@ -4669,7 +4670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
         <v>104</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
         <v>104</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
         <v>104</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245" s="2" t="s">
         <v>104</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" s="2" t="s">
         <v>104</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" s="2" t="s">
         <v>104</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" s="2" t="s">
         <v>104</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" s="2" t="s">
         <v>104</v>
       </c>
@@ -4790,7 +4791,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" s="2" t="s">
         <v>123</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" s="2" t="s">
         <v>123</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" s="2" t="s">
         <v>123</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" s="2" t="s">
         <v>123</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" s="2" t="s">
         <v>123</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" s="2" t="s">
         <v>123</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
         <v>123</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
         <v>123</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
         <v>123</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
         <v>123</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
         <v>123</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
         <v>123</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
         <v>123</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
         <v>123</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
         <v>123</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
         <v>123</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266" s="2" t="s">
         <v>123</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
         <v>123</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
         <v>123</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
         <v>123</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
         <v>123</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
         <v>123</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
         <v>123</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
         <v>123</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
         <v>123</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
         <v>123</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
         <v>123</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
         <v>123</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
         <v>123</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
         <v>123</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
         <v>123</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
         <v>123</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
         <v>123</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
         <v>123</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
         <v>123</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
         <v>123</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
         <v>123</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
         <v>123</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
         <v>123</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
         <v>123</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
         <v>123</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
         <v>123</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
         <v>123</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="2" t="s">
         <v>123</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" s="2" t="s">
         <v>123</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" s="2" t="s">
         <v>123</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" s="2" t="s">
         <v>123</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297" s="2" t="s">
         <v>123</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298" s="2" t="s">
         <v>123</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299" s="2" t="s">
         <v>123</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
         <v>123</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
         <v>123</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302" s="2" t="s">
         <v>123</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
         <v>123</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
         <v>123</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
         <v>123</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
         <v>123</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
         <v>123</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
         <v>123</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
         <v>123</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
         <v>123</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
         <v>123</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
         <v>61</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
         <v>61</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
         <v>61</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
         <v>61</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
         <v>61</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
         <v>61</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
         <v>61</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
         <v>61</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
         <v>61</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
         <v>61</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
         <v>61</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
         <v>61</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
         <v>61</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
         <v>61</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
         <v>61</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
         <v>61</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
         <v>61</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
         <v>61</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
         <v>61</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
         <v>61</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
         <v>61</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
         <v>61</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
         <v>61</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
         <v>61</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
         <v>61</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
         <v>61</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
         <v>61</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339" s="2" t="s">
         <v>61</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
         <v>61</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
         <v>61</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
         <v>61</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
         <v>61</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
         <v>61</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
         <v>61</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
         <v>61</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
         <v>61</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
         <v>61</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
         <v>61</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
         <v>61</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
         <v>61</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
         <v>61</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
         <v>61</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
         <v>61</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
         <v>61</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
         <v>61</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
         <v>61</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
         <v>61</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
         <v>61</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
         <v>104</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
         <v>69</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
         <v>123</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
         <v>61</v>
       </c>
@@ -6711,24 +6712,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E363">
+  <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="module"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="100"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.1,1,10,25,40,100"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"module,linecard,chassis,fabriccard,power,fan,supervisor,monitoring"</formula1>
     </dataValidation>
   </dataValidations>
